--- a/resources/results/01_Priorisierung/01_Priorisierung_results_advanced.xlsx
+++ b/resources/results/01_Priorisierung/01_Priorisierung_results_advanced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\MAS-Bienen-SoSe24\resources\results\01_Priorisierung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ED2850-194B-41EB-B3C9-269115E61ADF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805AB9CC-7433-4719-8FFE-3FD217D694B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8592" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulationsdaten" sheetId="1" r:id="rId1"/>
@@ -4573,7 +4573,7 @@
               <a:rPr lang="de-DE" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>01_Priorisierung: Futterquellen Priorität</a:t>
+              <a:t>Testcase Priorisierung</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE" sz="1100">
               <a:effectLst/>
@@ -5723,6 +5723,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1591945216"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7885,7 +7886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AHF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14115,11 +14116,11 @@
         <v>0</v>
       </c>
       <c r="AHD2">
-        <f>COUNTIF(B2:AHC2,"(350.0, 400.0)")</f>
+        <f t="shared" ref="AHD2:AHD35" si="0">COUNTIF(B2:AHC2,"(350.0, 400.0)")</f>
         <v>0</v>
       </c>
       <c r="AHE2">
-        <f>COUNTIF(C2:AHD2,"(1050.0, 400.0)")</f>
+        <f t="shared" ref="AHE2:AHE35" si="1">COUNTIF(C2:AHD2,"(1050.0, 400.0)")</f>
         <v>0</v>
       </c>
       <c r="AHF2" t="str">
@@ -16790,15 +16791,15 @@
         <v>0</v>
       </c>
       <c r="AHD3">
-        <f>COUNTIF(B3:AHC3,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AHE3">
-        <f>COUNTIF(C3:AHD3,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AHF3" t="str">
-        <f t="shared" ref="AHF3:AHF35" si="0">IF(AHD3&lt;&gt;AHE3,IF(AHD3&gt;AHE3,"1","2")," ")</f>
+        <f t="shared" ref="AHF3:AHF35" si="2">IF(AHD3&lt;&gt;AHE3,IF(AHD3&gt;AHE3,"1","2")," ")</f>
         <v>2</v>
       </c>
     </row>
@@ -19465,15 +19466,15 @@
         <v>0</v>
       </c>
       <c r="AHD4">
-        <f>COUNTIF(B4:AHC4,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="AHE4">
-        <f>COUNTIF(C4:AHD4,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="AHF4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -22140,15 +22141,15 @@
         <v>4</v>
       </c>
       <c r="AHD5">
-        <f>COUNTIF(B5:AHC5,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="AHE5">
-        <f>COUNTIF(C5:AHD5,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AHF5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -24815,15 +24816,15 @@
         <v>9</v>
       </c>
       <c r="AHD6">
-        <f>COUNTIF(B6:AHC6,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="AHE6">
-        <f>COUNTIF(C6:AHD6,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AHF6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -27490,15 +27491,15 @@
         <v>12</v>
       </c>
       <c r="AHD7">
-        <f>COUNTIF(B7:AHC7,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="AHE7">
-        <f>COUNTIF(C7:AHD7,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AHF7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -30165,15 +30166,15 @@
         <v>13</v>
       </c>
       <c r="AHD8">
-        <f>COUNTIF(B8:AHC8,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="AHE8">
-        <f>COUNTIF(C8:AHD8,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AHF8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -32834,15 +32835,15 @@
         <v>13</v>
       </c>
       <c r="AHD9">
-        <f>COUNTIF(B9:AHC9,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="AHE9">
-        <f>COUNTIF(C9:AHD9,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AHF9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -35497,15 +35498,15 @@
         <v>13</v>
       </c>
       <c r="AHD10">
-        <f>COUNTIF(B10:AHC10,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="AHE10">
-        <f>COUNTIF(C10:AHD10,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AHF10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -38148,15 +38149,15 @@
         <v>13</v>
       </c>
       <c r="AHD11">
-        <f>COUNTIF(B11:AHC11,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="AHE11">
-        <f>COUNTIF(C11:AHD11,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AHF11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -40799,15 +40800,15 @@
         <v>13</v>
       </c>
       <c r="AHD12">
-        <f>COUNTIF(B12:AHC12,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="AHE12">
-        <f>COUNTIF(C12:AHD12,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="AHF12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -43447,15 +43448,15 @@
         <v>13</v>
       </c>
       <c r="AHD13">
-        <f>COUNTIF(B13:AHC13,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="AHE13">
-        <f>COUNTIF(C13:AHD13,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="AHF13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -46098,15 +46099,15 @@
         <v>12</v>
       </c>
       <c r="AHD14">
-        <f>COUNTIF(B14:AHC14,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="AHE14">
-        <f>COUNTIF(C14:AHD14,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="AHF14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -48749,15 +48750,15 @@
         <v>11</v>
       </c>
       <c r="AHD15">
-        <f>COUNTIF(B15:AHC15,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="AHE15">
-        <f>COUNTIF(C15:AHD15,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="AHF15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -51400,15 +51401,15 @@
         <v>7</v>
       </c>
       <c r="AHD16">
-        <f>COUNTIF(B16:AHC16,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="AHE16">
-        <f>COUNTIF(C16:AHD16,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="AHF16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -54051,15 +54052,15 @@
         <v>9</v>
       </c>
       <c r="AHD17">
-        <f>COUNTIF(B17:AHC17,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="AHE17">
-        <f>COUNTIF(C17:AHD17,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="AHF17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -56702,15 +56703,15 @@
         <v>11</v>
       </c>
       <c r="AHD18">
-        <f>COUNTIF(B18:AHC18,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="AHE18">
-        <f>COUNTIF(C18:AHD18,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="AHF18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -59323,15 +59324,15 @@
         <v>15</v>
       </c>
       <c r="AHD19">
-        <f>COUNTIF(B19:AHC19,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="AHE19">
-        <f>COUNTIF(C19:AHD19,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="AHF19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -61932,15 +61933,15 @@
         <v>15</v>
       </c>
       <c r="AHD20">
-        <f>COUNTIF(B20:AHC20,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="AHE20">
-        <f>COUNTIF(C20:AHD20,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="AHF20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -64514,15 +64515,15 @@
         <v>15</v>
       </c>
       <c r="AHD21">
-        <f>COUNTIF(B21:AHC21,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AHE21">
-        <f>COUNTIF(C21:AHD21,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="AHF21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -67063,15 +67064,15 @@
         <v>15</v>
       </c>
       <c r="AHD22">
-        <f>COUNTIF(B22:AHC22,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="AHE22">
-        <f>COUNTIF(C22:AHD22,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="AHF22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -69576,15 +69577,15 @@
         <v>15</v>
       </c>
       <c r="AHD23">
-        <f>COUNTIF(B23:AHC23,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AHE23">
-        <f>COUNTIF(C23:AHD23,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="AHF23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -72071,15 +72072,15 @@
         <v>13</v>
       </c>
       <c r="AHD24">
-        <f>COUNTIF(B24:AHC24,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AHE24">
-        <f>COUNTIF(C24:AHD24,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="AHF24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -74575,15 +74576,15 @@
         <v>15</v>
       </c>
       <c r="AHD25">
-        <f>COUNTIF(B25:AHC25,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="AHE25">
-        <f>COUNTIF(C25:AHD25,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="AHF25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -77076,15 +77077,15 @@
         <v>13</v>
       </c>
       <c r="AHD26">
-        <f>COUNTIF(B26:AHC26,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="AHE26">
-        <f>COUNTIF(C26:AHD26,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="AHF26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -79571,15 +79572,15 @@
         <v>13</v>
       </c>
       <c r="AHD27">
-        <f>COUNTIF(B27:AHC27,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AHE27">
-        <f>COUNTIF(C27:AHD27,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="AHF27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -82048,15 +82049,15 @@
         <v>9</v>
       </c>
       <c r="AHD28">
-        <f>COUNTIF(B28:AHC28,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="AHE28">
-        <f>COUNTIF(C28:AHD28,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="AHF28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -84516,15 +84517,15 @@
         <v>9</v>
       </c>
       <c r="AHD29">
-        <f>COUNTIF(B29:AHC29,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="AHE29">
-        <f>COUNTIF(C29:AHD29,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="AHF29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -86960,15 +86961,15 @@
         <v>10</v>
       </c>
       <c r="AHD30">
-        <f>COUNTIF(B30:AHC30,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="AHE30">
-        <f>COUNTIF(C30:AHD30,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="AHF30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -89365,15 +89366,15 @@
         <v>12</v>
       </c>
       <c r="AHD31">
-        <f>COUNTIF(B31:AHC31,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="AHE31">
-        <f>COUNTIF(C31:AHD31,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="AHF31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -91752,15 +91753,15 @@
         <v>12</v>
       </c>
       <c r="AHD32">
-        <f>COUNTIF(B32:AHC32,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="AHE32">
-        <f>COUNTIF(C32:AHD32,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="AHF32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -94103,15 +94104,15 @@
         <v>12</v>
       </c>
       <c r="AHD33">
-        <f>COUNTIF(B33:AHC33,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AHE33">
-        <f>COUNTIF(C33:AHD33,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="AHF33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -96436,15 +96437,15 @@
         <v>11</v>
       </c>
       <c r="AHD34">
-        <f>COUNTIF(B34:AHC34,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="AHE34">
-        <f>COUNTIF(C34:AHD34,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AHF34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -98760,15 +98761,15 @@
         <v>10</v>
       </c>
       <c r="AHD35">
-        <f>COUNTIF(B35:AHC35,"(350.0, 400.0)")</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AHE35">
-        <f>COUNTIF(C35:AHD35,"(1050.0, 400.0)")</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="AHF35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -98990,8 +98991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD80330-3689-416E-954C-524B9FDB88D4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
